--- a/Auto-IT/Bulk-Shifts-Stable.xlsx
+++ b/Auto-IT/Bulk-Shifts-Stable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5595B3B9-AE77-4A2D-9175-7BB6AC204C3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{55A73486-C35F-4294-8A31-537208B25187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="230" yWindow="230" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>checkOutTime</t>
   </si>
   <si>
-    <t>sativa</t>
-  </si>
-  <si>
-    <t>John Fred</t>
-  </si>
-  <si>
-    <t>Dela Supervisor Supervisor</t>
+    <t>Zina</t>
+  </si>
+  <si>
+    <t>Sadio</t>
+  </si>
+  <si>
+    <t>Test Supervisor Supervisor</t>
   </si>
 </sst>
 </file>
@@ -111,9 +111,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,13 +433,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2">
@@ -448,10 +448,10 @@
       <c r="E2" s="2">
         <v>45995</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.79166666666666663</v>
       </c>
     </row>
